--- a/medicine/Psychotrope/Brauerei_Kaiserdom/Brauerei_Kaiserdom.xlsx
+++ b/medicine/Psychotrope/Brauerei_Kaiserdom/Brauerei_Kaiserdom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Kaiserdom Specialitäten Brauerei est une brasserie à Bamberg, dans le Land de Bavière.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie privée de Bamberg est fondée en 1718 dans le quartier Gaustadt de Bamberg par Georg Morg. Il appartient à la famille Wörner depuis 1910. Déjà en 1953, la production est de 6 000 hectolitres et augmente au cours des années suivantes. Dans les années 2010, environ 320 000 hl sont brassés chaque année. La brasserie Kaiserdom devient la plus grande brasserie de Bamberg et des environs. La bière (y compris la bière casher) est exportée sur les cinq continents et peut être achetée dans plus de 65 pays.
 La famille Wörner possède aussi la Klosterbräu Bamberg (acquise en 2017) et la Gasthausbrauerei Kronprinz.
@@ -544,7 +558,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bières
 Kaiserdom Pilsener Premium
